--- a/results/mp/logistic/corona/confidence/126/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.1/avg_0.004_scores.xlsx
@@ -58,24 +58,30 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
@@ -85,46 +91,40 @@
     <t>good</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>share</t>
@@ -499,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -607,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.417989417989418</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3391472868217054</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2080536912751678</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -757,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8407310704960835</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L7">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="M7">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L8">
-        <v>88</v>
+        <v>317</v>
       </c>
       <c r="M8">
-        <v>88</v>
+        <v>317</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -835,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +887,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.76875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7578125</v>
+        <v>0.7625</v>
       </c>
       <c r="L14">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="M14">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.7578125</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6976744186046512</v>
+        <v>0.6875</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6507936507936508</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6088235294117647</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L22">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M22">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5648535564853556</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L23">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="M23">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5638297872340425</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1225,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5538461538461539</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1251,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5525423728813559</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L26">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>132</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1277,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5285714285714286</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,13 +1303,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4269662921348314</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
